--- a/facturacion fiscal.xlsx
+++ b/facturacion fiscal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Proinca\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,11 +99,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -385,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +398,7 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -414,7 +415,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -423,11 +424,11 @@
         <v>22.04</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -435,11 +436,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -448,7 +449,7 @@
         <v>881.59999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -457,7 +458,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -465,14 +466,24 @@
         <f>+B8*16%</f>
         <v>121.60000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <f>+B9*75/100</f>
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <f>+B9+B8</f>
         <v>881.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <f>+B10-C9</f>
+        <v>790.4</v>
       </c>
     </row>
   </sheetData>

--- a/facturacion fiscal.xlsx
+++ b/facturacion fiscal.xlsx
@@ -389,13 +389,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -403,7 +403,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -412,7 +412,7 @@
       </c>
       <c r="B2" s="1">
         <f>+B1*16%</f>
-        <v>3.04</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -421,7 +421,7 @@
       </c>
       <c r="B3" s="1">
         <f>+B1+B2</f>
-        <v>22.04</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -446,7 +446,7 @@
       </c>
       <c r="B7" s="2">
         <f>+B5*B3</f>
-        <v>881.59999999999991</v>
+        <v>1071.8399999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -455,7 +455,7 @@
       </c>
       <c r="B8" s="1">
         <f>+B7/1.16</f>
-        <v>760</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B9" s="2">
         <f>+B8*16%</f>
-        <v>121.60000000000001</v>
+        <v>147.84</v>
       </c>
       <c r="C9">
         <f>+B9*75/100</f>
-        <v>91.2</v>
+        <v>110.88</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -477,13 +477,13 @@
       </c>
       <c r="B10" s="3">
         <f>+B9+B8</f>
-        <v>881.6</v>
+        <v>1071.8399999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <f>+B10-C9</f>
-        <v>790.4</v>
+        <v>960.95999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/facturacion fiscal.xlsx
+++ b/facturacion fiscal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t xml:space="preserve">costo $ </t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">iva </t>
+  </si>
+  <si>
+    <t>MONTO GLOBAL</t>
   </si>
 </sst>
 </file>
@@ -386,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,92 +401,104 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <f>+B1*16%</f>
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <f>+B1+B2</f>
-        <v>25.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2">
         <f>+B5*B3</f>
-        <v>1071.8399999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>498.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1">
         <f>+B7/1.16</f>
-        <v>924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>430.00000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>+B8*16%</f>
-        <v>147.84</v>
+        <v>68.800000000000011</v>
       </c>
       <c r="C9">
         <f>+B9*75/100</f>
-        <v>110.88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>51.600000000000009</v>
+      </c>
+      <c r="E9">
+        <v>20949.599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3">
         <f>+B9+B8</f>
-        <v>1071.8399999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>498.80000000000007</v>
+      </c>
+      <c r="E10">
+        <v>498.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <f>+B10-C9</f>
-        <v>960.95999999999992</v>
+        <v>447.20000000000005</v>
+      </c>
+      <c r="E11">
+        <v>21448.400000000001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/facturacion fiscal.xlsx
+++ b/facturacion fiscal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t xml:space="preserve">costo $ </t>
   </si>
@@ -81,12 +81,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,12 +108,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -389,115 +397,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <f>+B1*16%</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6.4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <f>+E1*16%</f>
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <f>+H1*16%</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <f>+B1+B2</f>
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>46.4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <f>+E1+E2</f>
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <f>+H1+H2</f>
+        <v>150.80000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+        <v>36.65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>36.65</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>36.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="2">
+        <f>+B5*B3</f>
+        <v>1700.56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <f>+E5*E3</f>
+        <v>2125.6999999999998</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <f>+H5*H3</f>
+        <v>5526.8200000000006</v>
+      </c>
+      <c r="J6" s="3">
+        <f>+B6+E6+H6</f>
+        <v>9353.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
       <c r="B7" s="2">
-        <f>+B5*B3</f>
+        <f>+B6/1.16</f>
+        <v>1466</v>
+      </c>
+      <c r="E7">
+        <f>+E6/1.16</f>
+        <v>1832.5</v>
+      </c>
+      <c r="H7">
+        <f>+H6/1.16</f>
+        <v>4764.5000000000009</v>
+      </c>
+      <c r="J7">
+        <f>+J6/1.16</f>
+        <v>8063.0000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="J8">
+        <f>+J7*16%</f>
+        <v>1290.0800000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="J9">
+        <f>+J8+J7</f>
+        <v>9353.0800000000017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <f>+B6/1.16</f>
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
+        <f>+B11*16%</f>
+        <v>234.56</v>
+      </c>
+      <c r="C12">
+        <f>+B12*75/100</f>
+        <v>175.92</v>
+      </c>
+      <c r="E12">
+        <v>20949.599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6">
+        <f>+B12+B11</f>
+        <v>1700.56</v>
+      </c>
+      <c r="E13">
         <v>498.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <f>+B7/1.16</f>
-        <v>430.00000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <f>+B8*16%</f>
-        <v>68.800000000000011</v>
-      </c>
-      <c r="C9">
-        <f>+B9*75/100</f>
-        <v>51.600000000000009</v>
-      </c>
-      <c r="E9">
-        <v>20949.599999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3">
-        <f>+B9+B8</f>
-        <v>498.80000000000007</v>
-      </c>
-      <c r="E10">
-        <v>498.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <f>+B10-C9</f>
-        <v>447.20000000000005</v>
-      </c>
-      <c r="E11">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f>+B13-C12</f>
+        <v>1524.6399999999999</v>
+      </c>
+      <c r="E14">
         <v>21448.400000000001</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F14" t="s">
         <v>7</v>
       </c>
     </row>

--- a/facturacion fiscal.xlsx
+++ b/facturacion fiscal.xlsx
@@ -400,7 +400,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,13 +416,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -437,14 +437,14 @@
       </c>
       <c r="B2" s="1">
         <f>+B1*16%</f>
-        <v>6.4</v>
+        <v>13.120000000000001</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1">
         <f>+E1*16%</f>
-        <v>8</v>
+        <v>6.72</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
@@ -460,14 +460,14 @@
       </c>
       <c r="B3" s="1">
         <f>+B1+B2</f>
-        <v>46.4</v>
+        <v>95.12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1">
         <f>+E1+E2</f>
-        <v>58</v>
+        <v>48.72</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -490,13 +490,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>36.65</v>
+        <v>36.68</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>36.65</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>3</v>
@@ -511,14 +511,14 @@
       </c>
       <c r="B6" s="2">
         <f>+B5*B3</f>
-        <v>1700.56</v>
+        <v>3489.0016000000001</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="2">
         <f>+E5*E3</f>
-        <v>2125.6999999999998</v>
+        <v>2094.96</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>4</v>
@@ -529,18 +529,18 @@
       </c>
       <c r="J6" s="3">
         <f>+B6+E6+H6</f>
-        <v>9353.08</v>
+        <v>11110.781600000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <f>+B6/1.16</f>
-        <v>1466</v>
+        <v>3007.76</v>
       </c>
       <c r="E7">
         <f>+E6/1.16</f>
-        <v>1832.5</v>
+        <v>1806.0000000000002</v>
       </c>
       <c r="H7">
         <f>+H6/1.16</f>
@@ -548,7 +548,7 @@
       </c>
       <c r="J7">
         <f>+J6/1.16</f>
-        <v>8063.0000000000009</v>
+        <v>9578.260000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -556,7 +556,7 @@
       <c r="B8" s="2"/>
       <c r="J8">
         <f>+J7*16%</f>
-        <v>1290.0800000000002</v>
+        <v>1532.5216000000003</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -564,7 +564,7 @@
       <c r="B9" s="2"/>
       <c r="J9">
         <f>+J8+J7</f>
-        <v>9353.0800000000017</v>
+        <v>11110.781600000002</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -573,7 +573,7 @@
       </c>
       <c r="B11" s="4">
         <f>+B6/1.16</f>
-        <v>1466</v>
+        <v>3007.76</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -582,11 +582,11 @@
       </c>
       <c r="B12" s="5">
         <f>+B11*16%</f>
-        <v>234.56</v>
+        <v>481.24160000000006</v>
       </c>
       <c r="C12">
         <f>+B12*75/100</f>
-        <v>175.92</v>
+        <v>360.93120000000005</v>
       </c>
       <c r="E12">
         <v>20949.599999999999</v>
@@ -598,7 +598,7 @@
       </c>
       <c r="B13" s="6">
         <f>+B12+B11</f>
-        <v>1700.56</v>
+        <v>3489.0016000000005</v>
       </c>
       <c r="E13">
         <v>498.8</v>
@@ -607,7 +607,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f>+B13-C12</f>
-        <v>1524.6399999999999</v>
+        <v>3128.0704000000005</v>
       </c>
       <c r="E14">
         <v>21448.400000000001</v>

--- a/facturacion fiscal.xlsx
+++ b/facturacion fiscal.xlsx
@@ -400,7 +400,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +416,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -437,7 +437,7 @@
       </c>
       <c r="B2" s="1">
         <f>+B1*16%</f>
-        <v>13.120000000000001</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" s="1">
         <f>+B1+B2</f>
-        <v>95.12</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -490,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>36.68</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -511,7 +511,7 @@
       </c>
       <c r="B6" s="2">
         <f>+B5*B3</f>
-        <v>3489.0016000000001</v>
+        <v>2494</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -529,14 +529,14 @@
       </c>
       <c r="J6" s="3">
         <f>+B6+E6+H6</f>
-        <v>11110.781600000002</v>
+        <v>10115.780000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <f>+B6/1.16</f>
-        <v>3007.76</v>
+        <v>2150</v>
       </c>
       <c r="E7">
         <f>+E6/1.16</f>
@@ -548,7 +548,7 @@
       </c>
       <c r="J7">
         <f>+J6/1.16</f>
-        <v>9578.260000000002</v>
+        <v>8720.5000000000018</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -556,7 +556,7 @@
       <c r="B8" s="2"/>
       <c r="J8">
         <f>+J7*16%</f>
-        <v>1532.5216000000003</v>
+        <v>1395.2800000000004</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -564,7 +564,7 @@
       <c r="B9" s="2"/>
       <c r="J9">
         <f>+J8+J7</f>
-        <v>11110.781600000002</v>
+        <v>10115.780000000002</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -573,7 +573,7 @@
       </c>
       <c r="B11" s="4">
         <f>+B6/1.16</f>
-        <v>3007.76</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -582,11 +582,11 @@
       </c>
       <c r="B12" s="5">
         <f>+B11*16%</f>
-        <v>481.24160000000006</v>
+        <v>344</v>
       </c>
       <c r="C12">
         <f>+B12*75/100</f>
-        <v>360.93120000000005</v>
+        <v>258</v>
       </c>
       <c r="E12">
         <v>20949.599999999999</v>
@@ -598,7 +598,7 @@
       </c>
       <c r="B13" s="6">
         <f>+B12+B11</f>
-        <v>3489.0016000000005</v>
+        <v>2494</v>
       </c>
       <c r="E13">
         <v>498.8</v>
@@ -607,7 +607,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f>+B13-C12</f>
-        <v>3128.0704000000005</v>
+        <v>2236</v>
       </c>
       <c r="E14">
         <v>21448.400000000001</v>

--- a/facturacion fiscal.xlsx
+++ b/facturacion fiscal.xlsx
@@ -400,7 +400,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +416,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -437,7 +437,7 @@
       </c>
       <c r="B2" s="1">
         <f>+B1*16%</f>
-        <v>8</v>
+        <v>4.32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" s="1">
         <f>+B1+B2</f>
-        <v>58</v>
+        <v>31.32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -490,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -511,7 +511,7 @@
       </c>
       <c r="B6" s="2">
         <f>+B5*B3</f>
-        <v>2494</v>
+        <v>1378.08</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -529,14 +529,14 @@
       </c>
       <c r="J6" s="3">
         <f>+B6+E6+H6</f>
-        <v>10115.780000000001</v>
+        <v>8999.86</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <f>+B6/1.16</f>
-        <v>2150</v>
+        <v>1188</v>
       </c>
       <c r="E7">
         <f>+E6/1.16</f>
@@ -548,7 +548,7 @@
       </c>
       <c r="J7">
         <f>+J6/1.16</f>
-        <v>8720.5000000000018</v>
+        <v>7758.5000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -556,7 +556,7 @@
       <c r="B8" s="2"/>
       <c r="J8">
         <f>+J7*16%</f>
-        <v>1395.2800000000004</v>
+        <v>1241.3600000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -564,7 +564,7 @@
       <c r="B9" s="2"/>
       <c r="J9">
         <f>+J8+J7</f>
-        <v>10115.780000000002</v>
+        <v>8999.86</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -573,7 +573,7 @@
       </c>
       <c r="B11" s="4">
         <f>+B6/1.16</f>
-        <v>2150</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -582,11 +582,11 @@
       </c>
       <c r="B12" s="5">
         <f>+B11*16%</f>
-        <v>344</v>
+        <v>190.08</v>
       </c>
       <c r="C12">
         <f>+B12*75/100</f>
-        <v>258</v>
+        <v>142.56000000000003</v>
       </c>
       <c r="E12">
         <v>20949.599999999999</v>
@@ -598,7 +598,7 @@
       </c>
       <c r="B13" s="6">
         <f>+B12+B11</f>
-        <v>2494</v>
+        <v>1378.08</v>
       </c>
       <c r="E13">
         <v>498.8</v>
@@ -607,7 +607,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f>+B13-C12</f>
-        <v>2236</v>
+        <v>1235.52</v>
       </c>
       <c r="E14">
         <v>21448.400000000001</v>

--- a/facturacion fiscal.xlsx
+++ b/facturacion fiscal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +416,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -437,7 +437,7 @@
       </c>
       <c r="B2" s="1">
         <f>+B1*16%</f>
-        <v>4.32</v>
+        <v>19.52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" s="1">
         <f>+B1+B2</f>
-        <v>31.32</v>
+        <v>141.52000000000001</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -490,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>44</v>
+        <v>36.729999999999997</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -511,7 +511,7 @@
       </c>
       <c r="B6" s="2">
         <f>+B5*B3</f>
-        <v>1378.08</v>
+        <v>5198.0295999999998</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -529,14 +529,14 @@
       </c>
       <c r="J6" s="3">
         <f>+B6+E6+H6</f>
-        <v>8999.86</v>
+        <v>12819.809600000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <f>+B6/1.16</f>
-        <v>1188</v>
+        <v>4481.0600000000004</v>
       </c>
       <c r="E7">
         <f>+E6/1.16</f>
@@ -548,7 +548,7 @@
       </c>
       <c r="J7">
         <f>+J6/1.16</f>
-        <v>7758.5000000000009</v>
+        <v>11051.560000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -556,7 +556,7 @@
       <c r="B8" s="2"/>
       <c r="J8">
         <f>+J7*16%</f>
-        <v>1241.3600000000001</v>
+        <v>1768.2496000000003</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -564,7 +564,7 @@
       <c r="B9" s="2"/>
       <c r="J9">
         <f>+J8+J7</f>
-        <v>8999.86</v>
+        <v>12819.809600000002</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -573,7 +573,7 @@
       </c>
       <c r="B11" s="4">
         <f>+B6/1.16</f>
-        <v>1188</v>
+        <v>4481.0600000000004</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -582,11 +582,11 @@
       </c>
       <c r="B12" s="5">
         <f>+B11*16%</f>
-        <v>190.08</v>
+        <v>716.96960000000013</v>
       </c>
       <c r="C12">
         <f>+B12*75/100</f>
-        <v>142.56000000000003</v>
+        <v>537.72720000000004</v>
       </c>
       <c r="E12">
         <v>20949.599999999999</v>
@@ -598,7 +598,7 @@
       </c>
       <c r="B13" s="6">
         <f>+B12+B11</f>
-        <v>1378.08</v>
+        <v>5198.0296000000008</v>
       </c>
       <c r="E13">
         <v>498.8</v>
@@ -607,13 +607,19 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f>+B13-C12</f>
-        <v>1235.52</v>
+        <v>4660.3024000000005</v>
       </c>
       <c r="E14">
         <v>21448.400000000001</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f>+B6/36.73</f>
+        <v>141.52000000000001</v>
       </c>
     </row>
   </sheetData>
